--- a/Scripts/python/SourceTables/Chimeras.xlsx
+++ b/Scripts/python/SourceTables/Chimeras.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\vscodespace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Obsidian\Perfect_World_Mobile_RU_Database\Scripts\python\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Защита</t>
   </si>
   <si>
-    <t>24_12000_鹊鸣星稀，翱翔九天。曾为凤凰下属的灵鹊，属[cc6000]防御反弹型[-]幻兽。它外表虽单纯无害，但战中的实力绝对不容小觑。</t>
-  </si>
-  <si>
     <t>Дино, существо типа [cc6000]ФАТК[-] непревзойденной быстроты. Он не таит в себе никаких желаний, кроме одного - стать быстрее и сильнее!</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Никто не знает его происхождения, известно лишь, что он полностью укутан снежным покровом. Ледяной гигант - это Химера типа [cc6000]ФАТК[-] с контролем одной цели.</t>
   </si>
   <si>
-    <t>24_16000_志向于原野中肆意游荡，逍遥平生的赤焱狐，属[cc6000]群攻伤害型[-]幻兽。赤焱狐滚烫灼心的狐焰，让许多觊觎它皮毛的生灵望而却步。</t>
-  </si>
-  <si>
     <t>Трионикс является Химерой [cc6000]Поддержки[-], когда-то он процветал в глубинах Моря Реальности. Панцирь, покрывающий все его тело, подобен непроницаемому защитному щиту.</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Трехглавый феникс</t>
   </si>
   <si>
-    <t>Милый лисенок</t>
-  </si>
-  <si>
     <t>Солнечная Медуза</t>
   </si>
   <si>
@@ -254,6 +245,39 @@
   </si>
   <si>
     <t>Тёмный Цзяолун</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Остров химер, Лоток, Разведение</t>
+  </si>
+  <si>
+    <t>Лисенок</t>
+  </si>
+  <si>
+    <t>Магазин слитков, Лоток, Разведение</t>
+  </si>
+  <si>
+    <t>Вавилонская башня, Разведение</t>
+  </si>
+  <si>
+    <t>Сорока парит в небесах среди редких звезд и стрекочет. Химера Защиты и Отражения. Выглядит безобидно, но ее силу в бою не стоит недооценивать.</t>
+  </si>
+  <si>
+    <t>Сорока</t>
+  </si>
+  <si>
+    <t>Рыжий лис</t>
+  </si>
+  <si>
+    <t>Рыжий лис. Стремится к безмятежной и свободной жизни. Химера массового урона. Пламя рыжего лиса отпугивает тех, кто жаждет заполучить его мех.</t>
+  </si>
+  <si>
+    <t>Информация отсутствует</t>
+  </si>
+  <si>
+    <t>Аукцион битвы династий, Лоток, Разведение</t>
   </si>
 </sst>
 </file>
@@ -576,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +614,7 @@
     <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +627,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -617,13 +644,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -631,13 +661,16 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -645,13 +678,16 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -659,13 +695,16 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -673,13 +712,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -687,13 +729,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -701,13 +746,16 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -715,13 +763,16 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -729,13 +780,16 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -743,13 +797,16 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -757,13 +814,16 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -771,184 +831,233 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scripts/python/SourceTables/Chimeras.xlsx
+++ b/Scripts/python/SourceTables/Chimeras.xlsx
@@ -103,84 +103,15 @@
     <t>ФАТК</t>
   </si>
   <si>
-    <t xml:space="preserve">Мощная духовная гончая Сиба-ину - Химера типа [cc6000]ФАТК[-]. Преданность, выносливость, упорство и непоколебимая настойчивость лучше всего описывают это существо. </t>
-  </si>
-  <si>
     <t>Поддержка</t>
   </si>
   <si>
-    <t>Альпака - Химера типа [cc6000]Поддержки[-]. Всегда остается непоколебимо преданной своему хозяину.</t>
-  </si>
-  <si>
     <t>МАТК</t>
   </si>
   <si>
-    <t>Иллюзорник - Химера [cc6000]MATK[-]. Он создает сны и иллюзии, опьяняя мечтателей. Кто поддастся чарам станет его жертвой.</t>
-  </si>
-  <si>
-    <t>Милый Лисенок - Химера типа [cc6000]MATK[-]. Все, кто хотел заполучить хвосты этого дивного существа, встретили трагическую гибель под его лапами.</t>
-  </si>
-  <si>
-    <t>Солнечная Медуза является Химерой типа [cc6000]MATK[-]. Ее щупальца, до краев наполненные ядом, служат ее самым грозным оружием, способным уничтожить любого врага.</t>
-  </si>
-  <si>
-    <t>Благородный и утонченный Журавль - Химера типа [cc6000]Поддержки[-]. Одно перо может закрыть солнце и луну, а крик может прогнать тысячи врагов.</t>
-  </si>
-  <si>
-    <t>Златогребень, Химера типа [cc6000]ФАТК[-], с момента своего рождения таит в себе единственную непоколебимую веру: сражаться, сражаться и еще раз сражаться!</t>
-  </si>
-  <si>
-    <t>Лунный зверь - это Химера типа [cc6000]ФАТК[-]. Не обманывайтесь его внешним видом, его сила атаки ничуть не уступает другим Химерам.</t>
-  </si>
-  <si>
-    <t>Русалка, Химера типа [cc6000]MATK[-], когда-то обитала на дне глубокого океана и обладала грозной силой.</t>
-  </si>
-  <si>
-    <t>Тигрик - Химера [cc6000]ФАТК[-]. Именно из-за его необузданной натуры никто не может проследить его происхождение или расшифровать его неуловимую тактику.</t>
-  </si>
-  <si>
-    <t>Барс, некогда верховое животное горного демона, является Химерой [cc6000]Поддержки[-]. Мастерство Барса не имеет себе равных в этом мире.</t>
-  </si>
-  <si>
-    <t>Цюнци является Химерой [cc6000]Поддержки[-] с контролем одной цели. Когда Цюнци рычит, враги бросаются в рассыпную.</t>
-  </si>
-  <si>
     <t>Защита</t>
   </si>
   <si>
-    <t>Дино, существо типа [cc6000]ФАТК[-] непревзойденной быстроты. Он не таит в себе никаких желаний, кроме одного - стать быстрее и сильнее!</t>
-  </si>
-  <si>
-    <t>Окутанный мистическим светом, Сияющий мотылек светится жизненной силой. Эта красочная Химера - целитель типа [cc6000]Поддержки[-].</t>
-  </si>
-  <si>
-    <t>Никто не знает его происхождения, известно лишь, что он полностью укутан снежным покровом. Ледяной гигант - это Химера типа [cc6000]ФАТК[-] с контролем одной цели.</t>
-  </si>
-  <si>
-    <t>Трионикс является Химерой [cc6000]Поддержки[-], когда-то он процветал в глубинах Моря Реальности. Панцирь, покрывающий все его тело, подобен непроницаемому защитному щиту.</t>
-  </si>
-  <si>
-    <t>Цилинь - Химера [cc6000]Урона[-] в подземельях. Этот мифический фантомный зверь родился в хаосе объединения небесных и земных аур.</t>
-  </si>
-  <si>
-    <t>Трехглавый феникс - это Мифический зверь типа [cc6000]ФАТК[-] с контролем одной цели. Одним взмахом крыльев он преодолевает тысячи миль сквозь облака.</t>
-  </si>
-  <si>
-    <t>Цзяолун является Химерой типа [cc6000]Поддержки[-]. Эта Мифическая Химера одним звучным ревом может заставить отступить большинство других Химер или врагов.</t>
-  </si>
-  <si>
-    <t>Сатх является ДД типа [cc6000]ФАТК[-] по одной цели. Времена меняются, но этот Мифический зверь остается непревзойденным, его победа не вызывает сомнений.</t>
-  </si>
-  <si>
-    <t>Феникс является Химерой типа [cc6000]Поддержки[-]. Своим звучным криком он может заставить небеса склониться, а пылающим пламенем испепелить врагов.</t>
-  </si>
-  <si>
-    <t>Богиня Луны является баффером защиты типа [cc6000]Поддержки[-]. Ее сияние освещает все уголки мира. С сердцем, полным сострадания, она дарит благословения всему живому.</t>
-  </si>
-  <si>
-    <t>Тёмный Цзяолун является Химерой типа [cc6000]Массовой атаки[-]. Эта Мифическая Химера одним звучным ревом может заставить отступить большинство других Химер или врагов.</t>
-  </si>
-  <si>
     <t>Сиба-ину</t>
   </si>
   <si>
@@ -278,6 +209,75 @@
   </si>
   <si>
     <t>Аукцион битвы династий, Лоток, Разведение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощная духовная гончая Сиба-ину - Химера типа ФАТК. Преданность, выносливость, упорство и непоколебимая настойчивость лучше всего описывают это существо. </t>
+  </si>
+  <si>
+    <t>Альпака - Химера типа Поддержки. Всегда остается непоколебимо преданной своему хозяину.</t>
+  </si>
+  <si>
+    <t>Иллюзорник - Химера MATK. Он создает сны и иллюзии, опьяняя мечтателей. Кто поддастся чарам станет его жертвой.</t>
+  </si>
+  <si>
+    <t>Милый Лисенок - Химера типа MATK. Все, кто хотел заполучить хвосты этого дивного существа, встретили трагическую гибель под его лапами.</t>
+  </si>
+  <si>
+    <t>Солнечная Медуза является Химерой типа MATK. Ее щупальца, до краев наполненные ядом, служат ее самым грозным оружием, способным уничтожить любого врага.</t>
+  </si>
+  <si>
+    <t>Благородный и утонченный Журавль - Химера типа Поддержки. Одно перо может закрыть солнце и луну, а крик может прогнать тысячи врагов.</t>
+  </si>
+  <si>
+    <t>Златогребень, Химера типа ФАТК, с момента своего рождения таит в себе единственную непоколебимую веру: сражаться, сражаться и еще раз сражаться!</t>
+  </si>
+  <si>
+    <t>Лунный зверь - это Химера типа ФАТК. Не обманывайтесь его внешним видом, его сила атаки ничуть не уступает другим Химерам.</t>
+  </si>
+  <si>
+    <t>Русалка, Химера типа MATK, когда-то обитала на дне глубокого океана и обладала грозной силой.</t>
+  </si>
+  <si>
+    <t>Тигрик - Химера ФАТК. Именно из-за его необузданной натуры никто не может проследить его происхождение или расшифровать его неуловимую тактику.</t>
+  </si>
+  <si>
+    <t>Барс, некогда верховое животное горного демона, является Химерой Поддержки. Мастерство Барса не имеет себе равных в этом мире.</t>
+  </si>
+  <si>
+    <t>Цюнци является Химерой Поддержки с контролем одной цели. Когда Цюнци рычит, враги бросаются в рассыпную.</t>
+  </si>
+  <si>
+    <t>Дино, существо типа ФАТК непревзойденной быстроты. Он не таит в себе никаких желаний, кроме одного - стать быстрее и сильнее!</t>
+  </si>
+  <si>
+    <t>Окутанный мистическим светом, Сияющий мотылек светится жизненной силой. Эта красочная Химера - целитель типа Поддержки.</t>
+  </si>
+  <si>
+    <t>Никто не знает его происхождения, известно лишь, что он полностью укутан снежным покровом. Ледяной гигант - это Химера типа ФАТК с контролем одной цели.</t>
+  </si>
+  <si>
+    <t>Трионикс является Химерой Поддержки, когда-то он процветал в глубинах Моря Реальности. Панцирь, покрывающий все его тело, подобен непроницаемому защитному щиту.</t>
+  </si>
+  <si>
+    <t>Цилинь - Химера Урона в подземельях. Этот мифический фантомный зверь родился в хаосе объединения небесных и земных аур.</t>
+  </si>
+  <si>
+    <t>Трехглавый феникс - это Мифический зверь типа ФАТК с контролем одной цели. Одним взмахом крыльев он преодолевает тысячи миль сквозь облака.</t>
+  </si>
+  <si>
+    <t>Цзяолун является Химерой типа Поддержки. Эта Мифическая Химера одним звучным ревом может заставить отступить большинство других Химер или врагов.</t>
+  </si>
+  <si>
+    <t>Сатх является ДД типа ФАТК по одной цели. Времена меняются, но этот Мифический зверь остается непревзойденным, его победа не вызывает сомнений.</t>
+  </si>
+  <si>
+    <t>Феникс является Химерой типа Поддержки. Своим звучным криком он может заставить небеса склониться, а пылающим пламенем испепелить врагов.</t>
+  </si>
+  <si>
+    <t>Богиня Луны является баффером защиты типа Поддержки. Ее сияние освещает все уголки мира. С сердцем, полным сострадания, она дарит благословения всему живому.</t>
+  </si>
+  <si>
+    <t>Тёмный Цзяолун является Химерой типа Массовой атаки. Эта Мифическая Химера одним звучным ревом может заставить отступить большинство других Химер или врагов.</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,16 +670,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,16 +704,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,16 +721,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,16 +738,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,16 +755,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,16 +772,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,16 +789,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,16 +823,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,16 +840,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,16 +857,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,16 +874,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,16 +891,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,16 +908,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,16 +925,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,16 +942,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,16 +959,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,16 +976,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,16 +993,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,16 +1010,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,16 +1027,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,16 +1044,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
